--- a/Spreadsheet Interface/Examples/Run_of_River_Simple_Network_Townsend.xlsx
+++ b/Spreadsheet Interface/Examples/Run_of_River_Simple_Network_Townsend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_27B02BB3AB9659DB438820632D6AFBD2D6A3435B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF16DB8D-5A91-435A-A361-62934D9C5B17}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_27B02BB3AB9659DB438820632D6AFBD2D6A3435B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC61185-3205-4BB3-BE2C-1B9221D332EC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="816" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="816" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background and Metadata" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
     <t>Log Normal</t>
   </si>
   <si>
-    <t>Genus = 'Micropterus', Month = [3,4,5], HUC02= [2]</t>
+    <t>Genus = 'Micropterus', Month = [3,4,5], HUC02= [4]</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
   <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
   <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1048557" sqref="A1048557:XFD1048557"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:BG10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD13"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:BC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD40"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,8 +1603,7 @@
     <col min="2" max="2" width="16.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="53" width="9.140625" style="28" customWidth="1"/>
     <col min="54" max="55" width="9.140625" customWidth="1"/>
   </cols>
@@ -1795,7 +1794,7 @@
   <dimension ref="A1:AU1627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD136"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23977,8 +23976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:HA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24303,13 +24302,13 @@
         <v>18</v>
       </c>
       <c r="F13">
-        <v>0.9657</v>
+        <v>1.3713</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.2999999999999999E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="I13" t="s">
         <v>101</v>

--- a/Spreadsheet Interface/Examples/Run_of_River_Simple_Network_Townsend.xlsx
+++ b/Spreadsheet Interface/Examples/Run_of_River_Simple_Network_Townsend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_27B02BB3AB9659DB438820632D6AFBD2D6A3435B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC61185-3205-4BB3-BE2C-1B9221D332EC}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_27B02BB3AB9659DB438820632D6AFBD2D6A3435B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36D8DDCB-6B82-4C0E-B9F8-1807F77086CE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="816" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background and Metadata" sheetId="1" r:id="rId1"/>
@@ -23976,8 +23976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:HA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24320,7 +24320,7 @@
         <v>0.4118</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="O13">
         <v>1.6</v>

--- a/Spreadsheet Interface/Examples/Run_of_River_Simple_Network_Townsend.xlsx
+++ b/Spreadsheet Interface/Examples/Run_of_River_Simple_Network_Townsend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_27B02BB3AB9659DB438820632D6AFBD2D6A3435B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36D8DDCB-6B82-4C0E-B9F8-1807F77086CE}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_27B02BB3AB9659DB438820632D6AFBD2D6A3435B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CDD01B2-B8C4-457F-A8C6-0A00E2591282}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24320,7 +24320,7 @@
         <v>0.4118</v>
       </c>
       <c r="L13">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O13">
         <v>1.6</v>
